--- a/other/reportes/Cantidad_productos.xlsx
+++ b/other/reportes/Cantidad_productos.xlsx
@@ -17,16 +17,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
-    <t>CANTIDAD ASPIRANTES INCRITOS TODOS LOS PROCESOS</t>
-  </si>
-  <si>
-    <t>PROCESO</t>
-  </si>
-  <si>
-    <t>SIGLO</t>
+    <t>CANTIDAD DE PRODUCTOS</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>VENDIDOS</t>
   </si>
   <si>
     <t>Go-Pro mas celular</t>
@@ -185,7 +185,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7620000" cy="3810000"/>
+    <xdr:ext cx="7620000" cy="3800475"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Grafica" descr="Grafica"/>
@@ -501,7 +501,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6"/>
@@ -510,7 +510,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.425537" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.425537" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -564,102 +564,113 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9"/>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C12"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C17"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C18"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="C19"/>
+      <c r="C20"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
